--- a/templates.xlsx
+++ b/templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dieterchvatal/Documents/Anaconda/oildata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A33662-5A90-A140-B3E7-986AE8EC5533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC5B9FCA-6C6A-AA4C-87D7-FFC878E92B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="26800" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="1280" windowWidth="21140" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="591">
   <si>
     <t>SampleID</t>
   </si>
@@ -33,27 +33,6 @@
     <t>Customer Name</t>
   </si>
   <si>
-    <t>Attention</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>Address 3</t>
-  </si>
-  <si>
-    <t>Post Code</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Fax Number</t>
-  </si>
-  <si>
     <t>Unique Code</t>
   </si>
   <si>
@@ -1765,6 +1744,60 @@
   </si>
   <si>
     <t>AnalysisDate</t>
+  </si>
+  <si>
+    <t>Probenbezeichnung</t>
+  </si>
+  <si>
+    <t>Schmierstoff</t>
+  </si>
+  <si>
+    <t>Rußgehalt [%]</t>
+  </si>
+  <si>
+    <t>Viskosität bei 40°C [mm²/s]</t>
+  </si>
+  <si>
+    <t>Viskosität bei 100°C [mm²/s]</t>
+  </si>
+  <si>
+    <t>Probenentnahme</t>
+  </si>
+  <si>
+    <t>Probendatum</t>
+  </si>
+  <si>
+    <t>Laufzeit</t>
+  </si>
+  <si>
+    <t>Gesamtlaufzeit</t>
+  </si>
+  <si>
+    <t>Probe betrifft</t>
+  </si>
+  <si>
+    <t>Wasser [%]</t>
+  </si>
+  <si>
+    <t>BN [mgKOH/g]</t>
+  </si>
+  <si>
+    <t>AN [mgKOH/g]</t>
+  </si>
+  <si>
+    <t>i-pH-Wert</t>
+  </si>
+  <si>
+    <t>Oxidation [A/cm]</t>
+  </si>
+  <si>
+    <t>Nitration [A/cm]</t>
+  </si>
+  <si>
+    <t>Viskositätsindex</t>
+  </si>
+  <si>
+    <t>Labornummer</t>
   </si>
 </sst>
 </file>
@@ -2105,335 +2138,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:MO3"/>
+  <dimension ref="A1:MH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.1640625" style="5"/>
-    <col min="43" max="43" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="32.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="27.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="36.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="33.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="35.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="24.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="120" max="121" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="24.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="19.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="24.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="142" max="145" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="23.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="19.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="149" max="150" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="21.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="153" max="154" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="156" max="157" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="21.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="25.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="19.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="38.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="39.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="44.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="19.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="21.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="191" max="192" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="193" max="195" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="205" max="206" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="207" max="208" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="212" max="213" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="214" max="217" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="28.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="219" max="220" width="29.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="30.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="28.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="25.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="224" max="225" width="26.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="25.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="26.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="40" style="5" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="41.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.1640625" style="5"/>
+    <col min="36" max="36" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24" style="5" customWidth="1"/>
+    <col min="40" max="40" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="32.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="25.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="36.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="63" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="33.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="35.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="113" max="114" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="24.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="135" max="138" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="146" max="147" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="149" max="150" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="25.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="161" max="162" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="38.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="39.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="44.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="21.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="184" max="185" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="186" max="188" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="29" style="5" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="29" style="5" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="29" style="5" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="200" max="201" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="205" max="206" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="207" max="210" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="28.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="212" max="213" width="29.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="30.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="28.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="25.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="217" max="218" width="26.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="25.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="26.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="40" style="5" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="41.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="29.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="41.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="43.5" style="5" bestFit="1" customWidth="1"/>
     <col min="239" max="239" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="29.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="41.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="43.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="251" max="253" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="6.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="271" max="272" width="27" style="5" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="27.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="280" max="281" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="322" max="323" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="324" max="329" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="336" max="337" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="19.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="23.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="350" max="351" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="21.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="354" max="16384" width="9.1640625" style="5"/>
+    <col min="240" max="240" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="244" max="246" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="27" style="5" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="27.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="273" max="274" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="315" max="316" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="317" max="322" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="329" max="330" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="343" max="344" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="347" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:353" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:346" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3472,29 +3501,8 @@
       <c r="MH1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="MI1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="MJ1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="MK1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="ML1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="MM1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="MN1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="MO1" s="1" t="s">
-        <v>352</v>
-      </c>
     </row>
-    <row r="2" spans="1:353" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4533,670 +4541,673 @@
       <c r="MH2" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="MI2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:346" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="MJ2" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="MK2" s="2" t="s">
+      <c r="F3" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="ML2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="MM2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="MN2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="MO2" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:353" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>579</v>
-      </c>
       <c r="AA3" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>527</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>532</v>
+        <v>45</v>
       </c>
       <c r="AU3" s="5" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="AV3" s="5" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="AX3" s="5" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="AY3" s="5" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="AZ3" s="5" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="BA3" s="5" t="s">
-        <v>52</v>
+        <v>426</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="BC3" s="5" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="BD3" s="5" t="s">
-        <v>516</v>
+        <v>407</v>
       </c>
       <c r="BE3" s="5" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="BF3" s="5" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="BG3" s="5" t="s">
-        <v>519</v>
+        <v>440</v>
       </c>
       <c r="BH3" s="5" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="BI3" s="5" t="s">
-        <v>60</v>
+        <v>442</v>
       </c>
       <c r="BJ3" s="5" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="BK3" s="5" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="BL3" s="5" t="s">
-        <v>500</v>
+        <v>63</v>
       </c>
       <c r="BM3" s="5" t="s">
-        <v>501</v>
+        <v>64</v>
       </c>
       <c r="BN3" s="5" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="BO3" s="5" t="s">
-        <v>448</v>
+        <v>528</v>
       </c>
       <c r="BP3" s="5" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="BQ3" s="5" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="BR3" s="5" t="s">
         <v>452</v>
       </c>
       <c r="BS3" s="5" t="s">
-        <v>70</v>
+        <v>364</v>
       </c>
       <c r="BT3" s="5" t="s">
-        <v>71</v>
+        <v>448</v>
       </c>
       <c r="BU3" s="5" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="BV3" s="5" t="s">
-        <v>535</v>
+        <v>411</v>
       </c>
       <c r="BW3" s="5" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="BX3" s="5" t="s">
-        <v>398</v>
+        <v>516</v>
       </c>
       <c r="BY3" s="5" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="BZ3" s="5" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="CA3" s="5" t="s">
-        <v>455</v>
+        <v>394</v>
       </c>
       <c r="CB3" s="5" t="s">
-        <v>412</v>
+        <v>521</v>
       </c>
       <c r="CC3" s="5" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="CD3" s="5" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="CE3" s="5" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="CF3" s="5" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="CG3" s="5" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="CH3" s="5" t="s">
         <v>401</v>
       </c>
       <c r="CI3" s="5" t="s">
-        <v>528</v>
+        <v>395</v>
       </c>
       <c r="CJ3" s="5" t="s">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="CK3" s="5" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="CL3" s="5" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="CM3" s="5" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="CN3" s="5" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="CO3" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="CP3" s="5" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="CQ3" s="5" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="CR3" s="5" t="s">
-        <v>458</v>
+        <v>95</v>
       </c>
       <c r="CS3" s="5" t="s">
-        <v>480</v>
+        <v>366</v>
       </c>
       <c r="CT3" s="5" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="CU3" s="5" t="s">
-        <v>515</v>
+        <v>98</v>
       </c>
       <c r="CV3" s="5" t="s">
-        <v>411</v>
+        <v>510</v>
       </c>
       <c r="CW3" s="5" t="s">
-        <v>369</v>
+        <v>496</v>
       </c>
       <c r="CX3" s="5" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="CY3" s="5" t="s">
         <v>102</v>
       </c>
       <c r="CZ3" s="5" t="s">
-        <v>373</v>
+        <v>490</v>
       </c>
       <c r="DA3" s="5" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="DB3" s="5" t="s">
-        <v>105</v>
+        <v>484</v>
       </c>
       <c r="DC3" s="5" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="DD3" s="5" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="DE3" s="5" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="DF3" s="5" t="s">
-        <v>109</v>
+        <v>455</v>
       </c>
       <c r="DG3" s="5" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="DH3" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="DI3" s="5" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="DJ3" s="5" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="DK3" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="DL3" s="5" t="s">
+      <c r="DM3" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="DN3" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="DO3" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="DP3" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="DQ3" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="DR3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS3" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="DT3" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="DU3" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="DV3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW3" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="DX3" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="DY3" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="EC3" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="ED3" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="EE3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI3" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="EJ3" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="EK3" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="EL3" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="EM3" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="EN3" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="EO3" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="DM3" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="DN3" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="DO3" s="5" t="s">
+      <c r="EP3" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="EQ3" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="ER3" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="ES3" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="ET3" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="EU3" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="EV3" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="DP3" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="DQ3" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="DR3" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="DT3" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="DU3" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="DV3" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="DW3" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="DX3" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="DY3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ3" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="EA3" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="EB3" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="EC3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED3" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="EE3" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="EF3" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="EJ3" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="EK3" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="EL3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP3" s="5" t="s">
+      <c r="EW3" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="EX3" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="EY3" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="EZ3" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="FA3" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="FB3" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="FC3" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="FD3" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="FE3" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="FF3" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="FG3" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="FH3" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="FI3" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="FJ3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK3" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="FL3" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="FM3" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="FN3" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="FO3" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="FP3" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="FQ3" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="FR3" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="FS3" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="FT3" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="FU3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV3" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="FW3" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="FX3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA3" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="GB3" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="GC3" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="GD3" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="GE3" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="GF3" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="GG3" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="GH3" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="GI3" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="GJ3" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="GK3" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="GL3" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="GM3" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="GN3" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="GO3" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="GP3" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="GQ3" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="GR3" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="GS3" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GT3" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="GU3" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="GV3" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="GW3" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="EQ3" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="ER3" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="ES3" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="ET3" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="EU3" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="EV3" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="EW3" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="EX3" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="EY3" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="EZ3" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="FA3" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="FB3" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="FC3" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="FD3" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="FE3" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="FF3" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="FG3" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="FH3" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="FI3" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="FJ3" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="FK3" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="FL3" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="FM3" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="FN3" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="FO3" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="FP3" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="FQ3" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR3" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="FS3" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="FT3" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="FU3" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="FV3" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="FW3" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="FX3" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="FY3" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="FZ3" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="GA3" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="GB3" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC3" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="GD3" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="GE3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF3" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH3" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="GI3" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="GJ3" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GK3" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="GL3" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="GM3" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="GN3" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="GO3" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="GP3" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="GQ3" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GR3" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="GS3" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="GT3" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="GU3" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="GV3" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="GW3" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="GX3" s="5" t="s">
         <v>390</v>
       </c>
       <c r="GY3" s="5" t="s">
-        <v>382</v>
+        <v>475</v>
       </c>
       <c r="GZ3" s="5" t="s">
-        <v>385</v>
+        <v>476</v>
       </c>
       <c r="HA3" s="5" t="s">
-        <v>389</v>
+        <v>477</v>
       </c>
       <c r="HB3" s="5" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="HC3" s="5" t="s">
-        <v>395</v>
+        <v>465</v>
       </c>
       <c r="HD3" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="HE3" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="HF3" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="HG3" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="HH3" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="HI3" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="HJ3" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="HE3" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="HF3" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="HG3" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="HH3" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="HI3" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="HJ3" s="5" t="s">
-        <v>472</v>
-      </c>
       <c r="HK3" s="5" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="HL3" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="HM3" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="HN3" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="HM3" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="HN3" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="HO3" s="5" t="s">
-        <v>496</v>
+        <v>381</v>
       </c>
       <c r="HP3" s="5" t="s">
-        <v>487</v>
+        <v>380</v>
       </c>
       <c r="HQ3" s="5" t="s">
-        <v>492</v>
+        <v>417</v>
       </c>
       <c r="HR3" s="5" t="s">
-        <v>495</v>
+        <v>418</v>
       </c>
       <c r="HS3" s="5" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="HT3" s="5" t="s">
-        <v>499</v>
+        <v>420</v>
       </c>
       <c r="HU3" s="5" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="HV3" s="5" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="HW3" s="5" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="HX3" s="5" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="HY3" s="5" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="HZ3" s="5" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="IA3" s="5" t="s">
-        <v>427</v>
+        <v>234</v>
       </c>
       <c r="IB3" s="5" t="s">
-        <v>428</v>
+        <v>235</v>
       </c>
       <c r="IC3" s="5" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="ID3" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="IE3" s="5" t="s">
-        <v>441</v>
+        <v>529</v>
       </c>
       <c r="IF3" s="5" t="s">
-        <v>444</v>
+        <v>530</v>
       </c>
       <c r="IG3" s="5" t="s">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="IH3" s="5" t="s">
-        <v>241</v>
+        <v>532</v>
       </c>
       <c r="II3" s="5" t="s">
-        <v>242</v>
+        <v>536</v>
       </c>
       <c r="IJ3" s="5" t="s">
-        <v>445</v>
+        <v>533</v>
       </c>
       <c r="IK3" s="5" t="s">
-        <v>446</v>
+        <v>534</v>
       </c>
       <c r="IL3" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="IM3" s="5" t="s">
         <v>537</v>
@@ -5208,25 +5219,25 @@
         <v>539</v>
       </c>
       <c r="IP3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="IQ3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="IR3" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="IS3" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="IT3" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="IU3" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="IQ3" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="IR3" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="IS3" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="IT3" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="IU3" s="5" t="s">
-        <v>545</v>
-      </c>
       <c r="IV3" s="5" t="s">
-        <v>546</v>
+        <v>255</v>
       </c>
       <c r="IW3" s="5" t="s">
         <v>256</v>
@@ -5235,67 +5246,67 @@
         <v>257</v>
       </c>
       <c r="IY3" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="IZ3" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="JA3" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="JB3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="JC3" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="JD3" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="IZ3" s="5" t="s">
+      <c r="JE3" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="JA3" s="5" t="s">
+      <c r="JF3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="JG3" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="JB3" s="5" t="s">
+      <c r="JH3" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="JI3" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="JC3" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="JD3" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="JE3" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="JF3" s="5" t="s">
+      <c r="JJ3" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="JG3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="JH3" s="5" t="s">
+      <c r="JK3" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="JI3" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="JJ3" s="5" t="s">
+      <c r="JL3" s="5" t="s">
         <v>553</v>
-      </c>
-      <c r="JK3" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="JL3" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="JM3" s="5" t="s">
         <v>272</v>
       </c>
       <c r="JN3" s="5" t="s">
-        <v>556</v>
+        <v>273</v>
       </c>
       <c r="JO3" s="5" t="s">
         <v>274</v>
       </c>
       <c r="JP3" s="5" t="s">
-        <v>557</v>
+        <v>275</v>
       </c>
       <c r="JQ3" s="5" t="s">
-        <v>558</v>
+        <v>276</v>
       </c>
       <c r="JR3" s="5" t="s">
-        <v>559</v>
+        <v>277</v>
       </c>
       <c r="JS3" s="5" t="s">
-        <v>560</v>
+        <v>278</v>
       </c>
       <c r="JT3" s="5" t="s">
         <v>279</v>
@@ -5304,10 +5315,10 @@
         <v>280</v>
       </c>
       <c r="JV3" s="5" t="s">
-        <v>281</v>
+        <v>508</v>
       </c>
       <c r="JW3" s="5" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="JX3" s="5" t="s">
         <v>283</v>
@@ -5325,10 +5336,10 @@
         <v>287</v>
       </c>
       <c r="KC3" s="5" t="s">
-        <v>515</v>
+        <v>288</v>
       </c>
       <c r="KD3" s="5" t="s">
-        <v>561</v>
+        <v>289</v>
       </c>
       <c r="KE3" s="5" t="s">
         <v>290</v>
@@ -5376,19 +5387,19 @@
         <v>304</v>
       </c>
       <c r="KT3" s="5" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="KU3" s="5" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="KV3" s="5" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="KW3" s="5" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="KX3" s="5" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="KY3" s="5" t="s">
         <v>310</v>
@@ -5397,31 +5408,31 @@
         <v>311</v>
       </c>
       <c r="LA3" s="5" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="LB3" s="5" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="LC3" s="5" t="s">
-        <v>293</v>
+        <v>555</v>
       </c>
       <c r="LD3" s="5" t="s">
-        <v>294</v>
+        <v>556</v>
       </c>
       <c r="LE3" s="5" t="s">
-        <v>295</v>
+        <v>557</v>
       </c>
       <c r="LF3" s="5" t="s">
-        <v>317</v>
+        <v>558</v>
       </c>
       <c r="LG3" s="5" t="s">
-        <v>318</v>
+        <v>559</v>
       </c>
       <c r="LH3" s="5" t="s">
-        <v>319</v>
+        <v>560</v>
       </c>
       <c r="LI3" s="5" t="s">
-        <v>320</v>
+        <v>561</v>
       </c>
       <c r="LJ3" s="5" t="s">
         <v>562</v>
@@ -5430,94 +5441,126 @@
         <v>563</v>
       </c>
       <c r="LL3" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="LM3" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="LM3" s="5" t="s">
+      <c r="LN3" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="LN3" s="5" t="s">
-        <v>566</v>
-      </c>
       <c r="LO3" s="5" t="s">
-        <v>567</v>
+        <v>326</v>
       </c>
       <c r="LP3" s="5" t="s">
-        <v>568</v>
+        <v>327</v>
       </c>
       <c r="LQ3" s="5" t="s">
-        <v>569</v>
+        <v>328</v>
       </c>
       <c r="LR3" s="5" t="s">
-        <v>570</v>
+        <v>329</v>
       </c>
       <c r="LS3" s="5" t="s">
         <v>330</v>
       </c>
       <c r="LT3" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="LU3" s="5" t="s">
-        <v>572</v>
+        <v>332</v>
       </c>
       <c r="LV3" s="5" t="s">
-        <v>333</v>
+        <v>567</v>
       </c>
       <c r="LW3" s="5" t="s">
-        <v>334</v>
+        <v>568</v>
       </c>
       <c r="LX3" s="5" t="s">
-        <v>335</v>
+        <v>569</v>
       </c>
       <c r="LY3" s="5" t="s">
-        <v>336</v>
+        <v>570</v>
       </c>
       <c r="LZ3" s="5" t="s">
         <v>337</v>
       </c>
       <c r="MA3" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="MB3" s="5" t="s">
         <v>339</v>
       </c>
       <c r="MC3" s="5" t="s">
-        <v>574</v>
+        <v>340</v>
       </c>
       <c r="MD3" s="5" t="s">
-        <v>575</v>
+        <v>341</v>
       </c>
       <c r="ME3" s="5" t="s">
-        <v>576</v>
+        <v>342</v>
       </c>
       <c r="MF3" s="5" t="s">
-        <v>577</v>
+        <v>343</v>
       </c>
       <c r="MG3" s="5" t="s">
         <v>344</v>
       </c>
       <c r="MH3" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:346" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="MI3" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="MJ3" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="MK3" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="ML3" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="MM3" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="MN3" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="MO3" s="5" t="s">
-        <v>352</v>
+      <c r="AM4" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="BB4" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="DN4" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="DO4" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="DQ4" s="5" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
